--- a/sample/dpt.xlsx
+++ b/sample/dpt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pshtm\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{949D55BA-1A86-4347-BF01-12A4FF890AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298D2124-F973-4952-B30F-4F46AED00D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8C76F192-581C-453B-B741-5B648EB2328C}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>nm</t>
   </si>
   <si>
-    <t>none</t>
+    <t>fifth</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>911</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>

--- a/sample/dpt.xlsx
+++ b/sample/dpt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pshtm\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298D2124-F973-4952-B30F-4F46AED00D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C368B3F-C016-41BC-8343-046F75466E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8C76F192-581C-453B-B741-5B648EB2328C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -42,7 +42,10 @@
     <t>nm</t>
   </si>
   <si>
-    <t>fifth</t>
+    <t>nintyx</t>
+  </si>
+  <si>
+    <t>eiighxne</t>
   </si>
 </sst>
 </file>
@@ -394,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE272332-CCD6-4372-9563-1BA1A68EB5D7}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,10 +415,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
